--- a/sources/fact_extraction_viewpoint/health-table11.xlsx
+++ b/sources/fact_extraction_viewpoint/health-table11.xlsx
@@ -287,7 +287,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -383,6 +383,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -915,7 +918,7 @@
   <dimension ref="A1:AA53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -976,11 +979,11 @@
       <c r="E6" s="7"/>
       <c r="L6" s="17"/>
       <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
+      <c r="N6" s="44"/>
       <c r="O6" s="27"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="27" t="s">
+      <c r="R6" s="44" t="s">
         <v>1</v>
       </c>
       <c r="S6" s="1"/>
@@ -1003,7 +1006,7 @@
       </c>
       <c r="L7" s="19"/>
       <c r="M7" s="18"/>
-      <c r="N7" s="18" t="s">
+      <c r="N7" s="37" t="s">
         <v>5</v>
       </c>
       <c r="O7" s="18"/>
